--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -443,13 +443,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>41694.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.56</v>
+        <v>3.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.99</v>
+        <v>2.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.21</v>
+        <v>3.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>3.09</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>167.74</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>30.92</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41694.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.43</v>
+        <v>3.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.61</v>
+        <v>2.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.2</v>
+        <v>4.42</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.08</v>
+        <v>17.01</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.6</v>
+        <v>3.26</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.49</v>
+        <v>2.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>2.18</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>21.84</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.59</v>
+        <v>4.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41694.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>39.65</v>
+        <v>3.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41694.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.78</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.78</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>77.34</v>
+        <v>7.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41694.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>29.54</v>
+        <v>2.95</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>23.87</v>
+        <v>2.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>39.03</v>
+        <v>3.9</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>154.04</v>
+        <v>15.4</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>29.58</v>
+        <v>2.96</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.27</v>
+        <v>1.93</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35.41</v>
+        <v>3.54</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41694.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.34</v>
+        <v>3.43</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.93</v>
+        <v>2.79</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>47.58</v>
+        <v>4.76</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>180.38</v>
+        <v>18.04</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>23.26</v>
+        <v>2.33</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>43.32</v>
+        <v>4.33</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41694.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>109.42</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.25</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.44</v>
+        <v>2.94</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41694.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>29.41</v>
+        <v>2.94</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>49.14</v>
+        <v>4.91</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.01</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>189.53</v>
+        <v>18.95</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>36.12</v>
+        <v>3.61</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.04</v>
+        <v>2.4</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.53</v>
+        <v>4.45</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41694.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>29.51</v>
+        <v>2.95</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>24.09</v>
+        <v>2.41</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.51</v>
+        <v>4.25</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>154.06</v>
+        <v>15.41</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>29.69</v>
+        <v>2.97</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.72</v>
+        <v>3.87</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +443,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -652,159 +652,159 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41694.34027777778</v>
+        <v>44943.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.24</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.77</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.19</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.09</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41694.34722222222</v>
+        <v>44943.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>3.24</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>2.56</v>
-      </c>
       <c r="G3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.42</v>
+        <v>5.41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.8</v>
+        <v>2.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.14</v>
@@ -813,881 +813,361 @@
         <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.01</v>
+        <v>21.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.26</v>
+        <v>4.1</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>1.08</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.86</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>4.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41694.35416666666</v>
+        <v>44943.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.43</v>
-      </c>
       <c r="Q4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.97</v>
+        <v>2.14</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41694.36111111111</v>
+        <v>44943.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.55</v>
+        <v>3.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.22</v>
+        <v>2.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.55</v>
+        <v>1.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.11</v>
+        <v>4.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.8</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.54</v>
+        <v>1.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.66</v>
+        <v>1.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.78</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.73</v>
+        <v>17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.55</v>
+        <v>3.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.02</v>
+        <v>2.17</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.53</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.01</v>
+        <v>2.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.85</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.63</v>
+        <v>1.36</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.91</v>
+        <v>3.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41694.36805555555</v>
+        <v>44943.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.35</v>
+        <v>20.55</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1</v>
+        <v>15.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.95</v>
+        <v>44.93</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.39</v>
+        <v>36.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.06</v>
+        <v>16.13</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.9</v>
+        <v>61.88</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.64</v>
+        <v>25.01</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.72</v>
+        <v>11.11</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.07</v>
+        <v>16.41</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.18</v>
+        <v>18.02</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.26</v>
+        <v>19.17</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.34</v>
+        <v>5.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.06</v>
+        <v>16.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.5</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.9</v>
+        <v>13.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.66</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.78</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.4</v>
+        <v>238.75</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.96</v>
+        <v>45.19</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.98</v>
+        <v>14.92</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.98</v>
+        <v>30.37</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.04</v>
+        <v>15.94</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.16</v>
+        <v>2.32</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.93</v>
+        <v>30.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.86</v>
+        <v>13.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.77</v>
+        <v>11.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.91</v>
+        <v>13.73</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.23</v>
+        <v>18.95</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.54</v>
+        <v>56.25</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.55</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41694.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41694.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41694.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41694.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41694.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>33.45</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>215.86</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>40.99</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>51.31</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.92</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -655,103 +655,103 @@
         <v>44943.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44943.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.07</v>
+        <v>40.68</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.24</v>
+        <v>32.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.41</v>
+        <v>54.1</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.59</v>
+        <v>215.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.1</v>
+        <v>40.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.11</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44943.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44943.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.19</v>
+        <v>41.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17</v>
+        <v>170.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.17</v>
+        <v>21.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.77</v>
+        <v>37.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44943.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44943.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.54</v>
+        <v>18.542</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.62</v>
+        <v>13.618</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.831</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.68</v>
+        <v>40.676</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.41</v>
+        <v>32.411</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.46</v>
+        <v>14.464</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.1</v>
+        <v>54.096</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.83</v>
+        <v>9.831</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.34</v>
+        <v>14.344</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.28</v>
+        <v>16.278</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>17.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.559</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.66</v>
+        <v>20.659</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.68</v>
+        <v>12.677</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.367</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.039</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.86</v>
+        <v>215.856</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.97</v>
+        <v>40.966</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>27.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.22</v>
+        <v>14.223</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.416</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.2</v>
+        <v>27.197</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.759</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.6</v>
+        <v>12.598</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.11</v>
+        <v>17.114</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.42</v>
+        <v>49.419</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.45</v>
+        <v>7.449</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44943.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.252</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.518</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.83</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.19</v>
+        <v>5.192</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.46</v>
+        <v>3.459</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.144</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.195</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.342</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.064</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.34</v>
+        <v>2.342</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.65</v>
+        <v>2.647</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.942</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.824</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.4</v>
+        <v>21.399</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.73</v>
+        <v>5.728</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>3.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.746</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.575</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.47</v>
+        <v>6.474</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.547</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.165</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.57</v>
+        <v>13.571</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44943.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>36.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44943.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.77</v>
+        <v>14.771</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.98</v>
+        <v>10.983</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.043</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.38</v>
+        <v>32.381</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.14</v>
+        <v>26.139</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.57</v>
+        <v>11.568</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.87</v>
+        <v>41.872</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.91</v>
+        <v>7.914</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>12.983</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.86</v>
+        <v>13.864</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.637</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.48</v>
+        <v>16.482</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.952999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.663</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.05</v>
+        <v>170.047</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.44</v>
+        <v>32.442</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.4</v>
+        <v>11.402</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.72</v>
+        <v>20.715</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.484999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.959</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.65</v>
+        <v>13.647</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.71</v>
+        <v>37.705</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.99</v>
+        <v>5.987</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44943.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>45.19</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_262.xlsx
+++ b/DATA_goal/Junction_Flooding_262.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44943.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.771</v>
+        <v>14.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.983</v>
+        <v>10.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.043</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.381</v>
+        <v>32.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.139</v>
+        <v>26.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.568</v>
+        <v>11.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.872</v>
+        <v>41.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.914</v>
+        <v>7.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.635</v>
+        <v>11.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.983</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.864</v>
+        <v>13.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.637</v>
+        <v>3.64</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.482</v>
+        <v>16.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.952999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.663</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.047</v>
+        <v>170.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.442</v>
+        <v>32.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.402</v>
+        <v>11.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.715</v>
+        <v>20.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.484999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.959</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.647</v>
+        <v>13.65</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.705</v>
+        <v>37.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.987</v>
+        <v>5.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.449</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44943.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>36.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.66</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>
